--- a/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
+++ b/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
@@ -49,9 +49,6 @@
     <t xml:space="preserve">Marwa mansour </t>
   </si>
   <si>
-    <t>V1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Page 1/ Document history </t>
   </si>
   <si>
@@ -103,15 +100,9 @@
     <t>page 5/Req from 12 to 16</t>
   </si>
   <si>
-    <t xml:space="preserve">crs requriement from 8 to 16 </t>
-  </si>
-  <si>
     <t>wrong version</t>
   </si>
   <si>
-    <t>shall be "v.1.1"</t>
-  </si>
-  <si>
     <t>PO_SB_CRS_011_V1.0</t>
   </si>
   <si>
@@ -119,6 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">shall be specifed for premuiem plan only </t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>page1 , document history</t>
+  </si>
+  <si>
+    <t>shall be v.1.0</t>
   </si>
 </sst>
 </file>
@@ -229,352 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -838,7 +493,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -888,16 +543,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>6</v>
@@ -905,7 +560,7 @@
     </row>
     <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>44866</v>
@@ -914,16 +569,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>6</v>
@@ -931,7 +586,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>44866</v>
@@ -940,16 +595,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
@@ -957,7 +612,7 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>44866</v>
@@ -966,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>6</v>
@@ -983,7 +638,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>44866</v>
@@ -992,16 +647,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>6</v>
@@ -1009,7 +664,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>44866</v>
@@ -1018,16 +673,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>6</v>
@@ -1060,12 +715,12 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
+++ b/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nourh\OneDrive\Desktop\Mobile_SWProcess_Documents\Mobile_SWProcess_Documents\Input Document\CRS\Review\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB90D15-68F1-4AEC-942D-D5A647014D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Entry Date</t>
   </si>
@@ -119,16 +125,37 @@
   </si>
   <si>
     <t>shall be v.1.0</t>
+  </si>
+  <si>
+    <t>CRS_REV_007</t>
+  </si>
+  <si>
+    <t>CRS_REV_008</t>
+  </si>
+  <si>
+    <t>Noorhan Hatem</t>
+  </si>
+  <si>
+    <t>PO_SB_CRS_001_V1.0</t>
+  </si>
+  <si>
+    <t>misspelling of the word "Basic"</t>
+  </si>
+  <si>
+    <t>shall write it correctly</t>
+  </si>
+  <si>
+    <t>page 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +179,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -229,30 +260,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -486,27 +494,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="7" width="44.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="7" width="44.5546875" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -532,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -558,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -584,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -610,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -636,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -662,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -688,44 +696,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44868</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44868</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
+++ b/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Entry Date</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>shall be v.1.0</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -229,30 +232,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -492,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -555,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -581,7 +561,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -607,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -633,7 +613,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -659,7 +639,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -685,7 +665,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -715,12 +695,12 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
+++ b/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nourh\OneDrive\Desktop\Mobile_SWProcess_Documents\Mobile_SWProcess_Documents\Input Document\CRS\Review\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB90D15-68F1-4AEC-942D-D5A647014D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +34,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>DocType_REV_ID</t>
   </si>
   <si>
@@ -146,12 +137,15 @@
   </si>
   <si>
     <t>page 5</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -494,29 +488,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="7" width="44.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="7" width="44.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -534,221 +528,221 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>44866</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>44866</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>44866</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>44866</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>44866</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>44866</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>44868</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>44868</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:H9">
@@ -762,7 +756,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
+++ b/Input Document/CRS/Review/PO_SP_CRS_MobileApplication_Review_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nourh\OneDrive\Desktop\Mobile_SWProcess_Documents\Mobile_SWProcess_Documents\Input Document\CRS\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB90D15-68F1-4AEC-942D-D5A647014D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59388D3E-6B2F-4AF2-8B62-2FF6702A4530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>Entry Date</t>
   </si>
@@ -146,6 +146,147 @@
   </si>
   <si>
     <t>page 5</t>
+  </si>
+  <si>
+    <t>CRS_REV_009</t>
+  </si>
+  <si>
+    <t>CRS_REV_010</t>
+  </si>
+  <si>
+    <t>CRS_REV_011</t>
+  </si>
+  <si>
+    <t>CRS_REV_012</t>
+  </si>
+  <si>
+    <t>CRS_REV_013</t>
+  </si>
+  <si>
+    <t>CRS_REV_014</t>
+  </si>
+  <si>
+    <t>CRS_REV_015</t>
+  </si>
+  <si>
+    <t>CRS_REV_016</t>
+  </si>
+  <si>
+    <t>CRS_REV_017</t>
+  </si>
+  <si>
+    <t>CRS_REV_018</t>
+  </si>
+  <si>
+    <t>CRS_REV_019</t>
+  </si>
+  <si>
+    <t>CRS_REV_020</t>
+  </si>
+  <si>
+    <t>CRS_REV_021</t>
+  </si>
+  <si>
+    <t>CRS_REV_022</t>
+  </si>
+  <si>
+    <t>page 6</t>
+  </si>
+  <si>
+    <t>page 7</t>
+  </si>
+  <si>
+    <t>page 8</t>
+  </si>
+  <si>
+    <t>CRS_REV_023</t>
+  </si>
+  <si>
+    <t>CRS_REV_024</t>
+  </si>
+  <si>
+    <t>CRS_REV_025</t>
+  </si>
+  <si>
+    <t>CRS_REV_026</t>
+  </si>
+  <si>
+    <t>CRS_REV_027</t>
+  </si>
+  <si>
+    <t>CRS_REV_028</t>
+  </si>
+  <si>
+    <t>CRS_REV_029</t>
+  </si>
+  <si>
+    <t>CRS_REV_030</t>
+  </si>
+  <si>
+    <t>CRS_REV_031</t>
+  </si>
+  <si>
+    <t>Esraa Abdelnaby</t>
+  </si>
+  <si>
+    <t>edit the context diagram</t>
+  </si>
+  <si>
+    <t>add requirments based on the change request of the CR</t>
+  </si>
+  <si>
+    <t>Allow sign up with "Gmail" &amp; "Fcebook"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add reset password option </t>
+  </si>
+  <si>
+    <t>Verify the accuracy of the information while logging in</t>
+  </si>
+  <si>
+    <t>Prevent the duplication of email during registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app shall let users choose the plan </t>
+  </si>
+  <si>
+    <t>The ride starts after the current location is determined</t>
+  </si>
+  <si>
+    <t>The app shall automatically detect the current location if it has access to the location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app shall allow reporting of any issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">users of basic plan can upgrade to premium plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on basic plan , the icons of all saved bumbs appear on the gps screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">voice notify users with the recorded speed bumbs </t>
+  </si>
+  <si>
+    <t>at choosing premium plan , app shall redirect the user to the website</t>
+  </si>
+  <si>
+    <t>on premium plan ,any upcoming bump shall appear on the screen</t>
+  </si>
+  <si>
+    <t>The app notifies the user of the time left until the next bump</t>
+  </si>
+  <si>
+    <t>by the end of the ride ,the app shall save the detected bumps</t>
+  </si>
+  <si>
+    <t>The user has to give the permission to connect to the detecting device via bluetooth</t>
+  </si>
+  <si>
+    <t>page 4</t>
+  </si>
+  <si>
+    <t>V1.2</t>
   </si>
 </sst>
 </file>
@@ -498,10 +639,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,21 +889,523 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44892</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44893</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44894</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H32">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H32">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H32" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>
